--- a/xlsx/亚拉巴马州_intext.xlsx
+++ b/xlsx/亚拉巴马州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1261">
   <si>
     <t>亚拉巴马州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_亚拉巴马州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_亚拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>阿拉巴馬州州旗</t>
+    <t>阿拉巴马州州旗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seal_of_Alabama</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%92%B2%E7%BF%85%E9%B4%B7</t>
   </si>
   <si>
-    <t>北撲翅鴷</t>
+    <t>北扑翅䴕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利 (阿拉巴馬州)</t>
+    <t>蒙哥马利 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BD%95_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯明罕 (阿拉巴馬州)</t>
+    <t>伯明罕 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Birmingham_metropolitan_area,_Alabama</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
   </si>
   <si>
-    <t>墨西哥灣</t>
+    <t>墨西哥湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>阿拉巴馬領地</t>
+    <t>阿拉巴马领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Alabama</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>阿拉巴馬州議會</t>
+    <t>阿拉巴马州议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>阿拉巴馬州參議院</t>
+    <t>阿拉巴马州参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>阿拉巴馬州眾議院</t>
+    <t>阿拉巴马州众议院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Alabama</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E8%AC%9D%E7%88%BE%E6%AF%94</t>
   </si>
   <si>
-    <t>理查·謝爾比</t>
+    <t>理查·谢尔比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%C2%B7%E6%96%AF%E7%89%B9%E8%98%AD%E5%A5%87</t>
   </si>
   <si>
-    <t>路德·斯特蘭奇</t>
+    <t>路德·斯特兰奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
   </si>
   <si>
-    <t>協調世界時</t>
+    <t>协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -329,31 +329,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -365,21 +365,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州面積列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/inland_waterway</t>
   </si>
   <si>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E9%B3%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州鳥列表</t>
+    <t>美国州鸟列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
@@ -413,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E8%8A%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州花列表</t>
+    <t>美国州花列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%8C%B6%E5%B1%AC</t>
   </si>
   <si>
-    <t>山茶屬</t>
+    <t>山茶属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E8%8C%A8%E7%BB%B4%E5%B0%94_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%AF%94%E7%88%BE_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫比爾 (阿拉巴馬州)</t>
+    <t>莫比尔 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E8%80%85</t>
@@ -443,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Disfranchisement_after_the_Reconstruction_Era</t>
@@ -461,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russell_Cave_National_Monument</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%85%8B%E6%89%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>喬克托語</t>
+    <t>乔克托语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E5%BE%B7%C2%B7%E7%B4%A2%E6%89%98</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8D%A1%C2%B7%E5%8A%A0%E8%A5%BF%E6%8B%89%E7%B4%A2%C2%B7%E5%BE%B7%E6%8B%89%E7%B6%AD%E5%8A%A0</t>
   </si>
   <si>
-    <t>印卡·加西拉索·德拉維加</t>
+    <t>印卡·加西拉索·德拉维加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>轉寫</t>
+    <t>转写</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_place_names_in_Alabama_of_Native_American_origin</t>
@@ -593,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
+    <t>伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E5%9C%9F%E5%A2%A9%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞土墩遺址</t>
+    <t>卡霍基亚土墩遗址</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>遺物</t>
+    <t>遗物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Southeastern_Ceremonial_Complex</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>切羅基人</t>
+    <t>切罗基人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E8%AF%AD%E7%B3%BB</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%85%8B%E6%89%98%E6%97%8F</t>
   </si>
   <si>
-    <t>喬克托族</t>
+    <t>乔克托族</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Muscogee</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>七年戰爭</t>
+    <t>七年战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/West_Florida</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Loyalist_(American_Revolution)</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%AF%94%E7%88%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>莫比爾縣</t>
+    <t>莫比尔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%8E%BF_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>密西西比領地</t>
+    <t>密西西比领地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yazoo_lands</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yazoo_land_scandal</t>
@@ -797,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF-%E5%A5%A7%E5%B0%BC%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>亞當斯-奧尼斯條約</t>
+    <t>亚当斯-奥尼斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/St._Stephens,_Alabama</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>達拉斯縣 (阿拉巴馬州)</t>
+    <t>达拉斯县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cahaba,_Alabama</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>阿拉巴馬州行政區劃</t>
+    <t>阿拉巴马州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
   </si>
   <si>
-    <t>田納西河</t>
+    <t>田纳西河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_Bay</t>
@@ -869,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9E%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿巴拉契亞山脈</t>
+    <t>阿巴拉契亚山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家公園管理局</t>
+    <t>美国国家公园管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%9F%8E_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E5%9F%BA%E5%90%89_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塔斯基吉 (阿拉巴馬州)</t>
+    <t>塔斯基吉 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tuskegee_Airmen_National_Historic_Site</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%A5%87%E8%8C%B2%E5%B0%8F%E9%81%93%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>納奇茲小道公路</t>
+    <t>纳奇兹小道公路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Selma_to_Montgomery_marches</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%BD%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>落磯山脈</t>
+    <t>落矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%8B%B1</t>
@@ -1013,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9C%AC%E6%B0%A3%E5%80%99%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>柯本氣候分類法</t>
+    <t>柯本气候分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1025,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>熱帶風暴</t>
+    <t>热带风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9A%B4</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB</t>
   </si>
   <si>
-    <t>閃電</t>
+    <t>闪电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E9%9B%B9</t>
@@ -1127,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>阿拉巴馬州議會大廈</t>
+    <t>阿拉巴马州议会大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alabama_Constitution</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alabama_Judicial_Building</t>
@@ -1169,13 +1163,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reynolds_v._Sims</t>
@@ -1235,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_supreme_court</t>
@@ -1271,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>上訴法院</t>
+    <t>上诉法院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/trial_court</t>
@@ -1289,13 +1280,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%9C%9F%E5%BE%92%E5%88%91</t>
   </si>
   <si>
-    <t>無期徒刑</t>
+    <t>无期徒刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E5%BD%A2%E5%BC%8F%E6%A0%91%E7%8A%B6%E7%BB%93%E6%9E%84%E7%BB%98%E5%9B%BE%E6%B3%95</t>
@@ -1343,13 +1334,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥迪遜縣 (阿拉巴馬州)</t>
+    <t>麦迪逊县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E6%AF%94%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝爾比縣 (阿拉巴馬州)</t>
+    <t>谢尔比县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%BA%B3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1391,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>李縣 (阿拉巴馬州)</t>
+    <t>李县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E4%BD%A9%E8%8E%B1%E5%8D%A1_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1403,25 +1394,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%9C%AC_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐本 (阿拉巴馬州)</t>
+    <t>欧本 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根縣 (阿拉巴馬州)</t>
+    <t>摩根县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%87%B1%E7%89%B9_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>迪凱特 (阿拉巴馬州)</t>
+    <t>迪凯特 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%9C%8D%E6%81%A9%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡爾霍恩縣 (阿拉巴馬州)</t>
+    <t>卡尔霍恩县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B0%BC%E6%96%AF%E6%95%A6_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1457,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬歇爾縣 (阿拉巴馬州)</t>
+    <t>马歇尔县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E7%89%B9%E6%96%AF%E7%BB%B4%E5%B0%94_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1481,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%80%AB%E6%96%AF_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗洛倫斯 (阿拉巴馬州)</t>
+    <t>弗洛伦斯 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E8%90%8A%E7%88%BE%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖克萊爾縣 (阿拉巴馬州)</t>
+    <t>圣克莱尔县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%BB%B4%E5%B0%94_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1505,61 +1496,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2016年美國總統選舉</t>
+    <t>2016年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2012年美國總統選舉</t>
+    <t>2012年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2008年美國總統選舉</t>
+    <t>2008年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2004年美國總統選舉</t>
+    <t>2004年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2000年美國總統選舉</t>
+    <t>2000年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1996年美國總統選舉</t>
+    <t>1996年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1992年美國總統選舉</t>
+    <t>1992年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1988年美國總統選舉</t>
+    <t>1988年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1984年美國總統選舉</t>
+    <t>1984年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -1613,109 +1604,106 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>美國參議員</t>
+    <t>美国参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%BA%97%C2%B7%E5%A1%9E%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>特麗·塞維爾</t>
+    <t>特丽·塞维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Immigration_to_the_United_States</t>
@@ -1733,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%88%BE%E9%A0%93%E7%B8%A3</t>
   </si>
   <si>
-    <t>奇爾頓縣</t>
+    <t>奇尔顿县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E7%B1%B3%E6%A3%AE_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1763,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%97%8F</t>
@@ -1787,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1805,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Race_and_ethnicity_in_the_United_States_Census</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%99%B6%E5%8A%A0%E7%B8%A3</t>
   </si>
   <si>
-    <t>奧陶加縣</t>
+    <t>奥陶加县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%96%AF%E5%A1%94%E7%93%A6%E5%B1%B1_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -1937,25 +1925,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>非洲語言</t>
+    <t>非洲语言</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Temple_B%27nai_Sholom_(Huntsville,_Alabama)</t>
@@ -1985,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>福音主義</t>
+    <t>福音主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E6%96%B0%E6%95%99</t>
@@ -2009,49 +1997,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>摩門教</t>
+    <t>摩门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>無宗教</t>
+    <t>无宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E7%9F%A5%E8%AB%96</t>
   </si>
   <si>
-    <t>不可知論</t>
+    <t>不可知论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -2075,7 +2063,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%A4%A7%E5%AD%B8%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>阿拉巴馬大學伯明翰分校</t>
+    <t>阿拉巴马大学伯明翰分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%A4%A7%E5%AD%A6%E4%BA%A8%E8%8C%A8%E7%BB%B4%E5%B0%94%E5%88%86%E6%A0%A1</t>
@@ -2087,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auburn_University_Montgomery</t>
@@ -2111,31 +2099,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北阿拉巴馬大學</t>
+    <t>北阿拉巴马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南阿拉巴馬大學</t>
+    <t>南阿拉巴马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E9%81%9C%E7%B6%AD%E7%88%BE%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>傑克遜維爾州立大學</t>
+    <t>杰克逊维尔州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%93%A6%E6%B4%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙特瓦洛大學</t>
+    <t>蒙特瓦洛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>沙姆福德大學</t>
+    <t>沙姆福德大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Birmingham%E2%80%93Southern_College</t>
@@ -2147,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%89%E4%B8%98%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>泉丘學院</t>
+    <t>泉丘学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Huntingdon_College</t>
@@ -2159,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>安德魯·傑克森大學</t>
+    <t>安德鲁·杰克森大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_Command_and_Staff_College</t>
@@ -2171,13 +2159,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿拉巴馬農工大學</t>
+    <t>阿拉巴马农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿拉巴馬州立大學</t>
+    <t>阿拉巴马州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Athens_State_University</t>
@@ -2219,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%8B%E4%BC%8D%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐克伍德大學</t>
+    <t>欧克伍德大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Southeastern_Bible_College</t>
@@ -2261,13 +2249,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西阿拉巴馬大學</t>
+    <t>西阿拉巴马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E5%9C%B0%E6%96%B9%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>蒙哥馬利地方機場</t>
+    <t>蒙哥马利地方机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/59%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -2279,13 +2267,13 @@
     <t>https://zh.wikipedia.org/wiki/20%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>20號州際公路</t>
+    <t>20号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/65%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>65號州際公路</t>
+    <t>65号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0-%E6%B2%99%E7%89%B9%E5%B0%94%E6%96%AF%E6%B2%83%E6%80%9D%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -2321,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%90%B5</t>
   </si>
   <si>
-    <t>美鐵</t>
+    <t>美铁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crescent_(train)</t>
@@ -2351,13 +2339,13 @@
     <t>https://zh.wikipedia.org/wiki/85%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>85號州際公路</t>
+    <t>85号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>10號州際公路</t>
+    <t>10号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/22%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -2369,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interstate_165</t>
@@ -2549,13 +2537,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>貨櫃碼頭</t>
+    <t>货柜码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%96%AF%E5%B0%94%E8%82%96%E5%B0%94%E6%96%AF_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -2615,31 +2603,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%99%BD%E8%A5%AA</t>
   </si>
   <si>
-    <t>芝加哥白襪</t>
+    <t>芝加哥白袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E9%87%80%E9%85%92%E4%BA%BA</t>
   </si>
   <si>
-    <t>密爾瓦基釀酒人</t>
+    <t>密尔瓦基酿酒人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
   </si>
   <si>
-    <t>亞利桑那響尾蛇</t>
+    <t>亚利桑那响尾蛇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
   </si>
   <si>
-    <t>坦帕灣光芒</t>
+    <t>坦帕湾光芒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_American_Vertical_Datum_of_1988</t>
@@ -2651,13 +2639,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>美洲原住民語言</t>
+    <t>美洲原住民语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -2669,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%92%9E%E6%93%8A%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>地球撞擊資料庫</t>
+    <t>地球撞击资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E4%BC%A6%E7%91%9E%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2699,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_Alabama</t>
@@ -2867,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>皮埃蒙特 (美國)</t>
+    <t>皮埃蒙特 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ridge-and-Valley_Appalachians</t>
@@ -3023,7 +3011,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>切羅基縣 (阿拉巴馬州)</t>
+    <t>切罗基县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%B0%94%E9%A1%BF%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3119,13 +3107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%80%B6%E7%89%B9%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費耶特縣 (阿拉巴馬州)</t>
+    <t>费耶特县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (阿拉巴馬州)</t>
+    <t>富兰克林县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%B0%BC%E7%93%A6%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3179,7 +3167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞倫斯縣 (阿拉巴馬州)</t>
+    <t>劳伦斯县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3209,7 +3197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E4%BA%9E%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥迪遜縣 (亞拉巴馬州)</t>
+    <t>麦迪逊县 (亚拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%A6%E6%88%88%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3239,7 +3227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門羅縣 (阿拉巴馬州)</t>
+    <t>门罗县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3293,7 +3281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%A7%86%E7%89%B9%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩姆特縣 (阿拉巴馬州)</t>
+    <t>萨姆特县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%8B%89%E8%BF%AA%E5%8A%A0%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3317,7 +3305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%85%8B%E7%B8%A3_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃克縣 (阿拉巴馬州)</t>
+    <t>沃克县 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%8E%BF_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -3347,7 +3335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -3359,7 +3347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -3377,7 +3365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -3395,9 +3383,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
   </si>
   <si>
@@ -3413,9 +3398,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -3431,7 +3413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -3461,7 +3443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -3473,13 +3455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -3491,7 +3473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -3545,7 +3527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -3563,7 +3545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -3581,15 +3563,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
@@ -3611,7 +3587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -3629,7 +3605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -3641,19 +3617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -3671,7 +3647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -3683,7 +3659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -3695,7 +3671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -3707,25 +3683,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -3761,7 +3737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3779,7 +3755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3797,7 +3773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3809,13 +3785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5903,7 +5879,7 @@
         <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5929,10 +5905,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5958,10 +5934,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5987,10 +5963,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -6016,10 +5992,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -6045,10 +6021,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -6074,10 +6050,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -6103,10 +6079,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -6132,10 +6108,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -6161,10 +6137,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>17</v>
@@ -6190,10 +6166,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>36</v>
@@ -6219,10 +6195,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -6248,10 +6224,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -6277,10 +6253,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -6335,10 +6311,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6364,10 +6340,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>7</v>
@@ -6393,10 +6369,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -6422,10 +6398,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -6451,10 +6427,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -6480,10 +6456,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -6509,10 +6485,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -6538,10 +6514,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6567,10 +6543,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6596,10 +6572,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6625,10 +6601,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -6654,10 +6630,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -6683,10 +6659,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6712,10 +6688,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6741,10 +6717,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6770,10 +6746,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6799,10 +6775,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6828,10 +6804,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6857,10 +6833,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6886,10 +6862,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>8</v>
@@ -6915,10 +6891,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6944,10 +6920,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6973,10 +6949,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -7002,10 +6978,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -7031,10 +7007,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -7060,10 +7036,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -7089,10 +7065,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -7118,10 +7094,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -7147,10 +7123,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -7176,10 +7152,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -7205,10 +7181,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7234,10 +7210,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -7263,10 +7239,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7292,10 +7268,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7321,10 +7297,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7350,10 +7326,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7379,10 +7355,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7408,10 +7384,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7437,10 +7413,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7466,10 +7442,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -7495,10 +7471,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7524,10 +7500,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -7553,10 +7529,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7582,10 +7558,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7611,10 +7587,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7640,10 +7616,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7669,10 +7645,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7698,10 +7674,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7727,10 +7703,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7756,10 +7732,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7785,10 +7761,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7814,10 +7790,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7843,10 +7819,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7872,10 +7848,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7901,10 +7877,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7930,10 +7906,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7959,10 +7935,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7988,10 +7964,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8046,10 +8022,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8075,10 +8051,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8104,10 +8080,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8133,10 +8109,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8162,10 +8138,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8191,10 +8167,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -8220,10 +8196,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -8249,10 +8225,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8278,10 +8254,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -8307,10 +8283,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -8336,10 +8312,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -8365,10 +8341,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8394,10 +8370,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8423,10 +8399,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8452,10 +8428,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8481,10 +8457,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8510,10 +8486,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8539,10 +8515,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8568,10 +8544,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -8597,10 +8573,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8626,10 +8602,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8655,10 +8631,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8684,10 +8660,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8713,10 +8689,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8742,10 +8718,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8771,10 +8747,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8800,10 +8776,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8829,10 +8805,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8858,10 +8834,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8887,10 +8863,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8916,10 +8892,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8945,10 +8921,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8974,10 +8950,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -9003,10 +8979,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9032,10 +9008,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -9061,10 +9037,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9090,10 +9066,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9119,10 +9095,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9148,10 +9124,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9177,10 +9153,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -9206,10 +9182,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -9235,10 +9211,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -9264,10 +9240,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9293,10 +9269,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -9322,10 +9298,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9351,10 +9327,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9380,10 +9356,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9409,10 +9385,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9438,10 +9414,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9467,10 +9443,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9496,10 +9472,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9525,10 +9501,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9554,10 +9530,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9583,10 +9559,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9612,10 +9588,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9641,10 +9617,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>4</v>
@@ -9670,10 +9646,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9699,10 +9675,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9728,10 +9704,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9757,10 +9733,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9786,10 +9762,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9815,10 +9791,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9844,10 +9820,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9989,10 +9965,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10018,10 +9994,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10076,10 +10052,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -10105,10 +10081,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10134,10 +10110,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10163,10 +10139,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10192,10 +10168,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10221,10 +10197,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10279,10 +10255,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10308,10 +10284,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -10337,10 +10313,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10366,10 +10342,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10395,10 +10371,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10424,10 +10400,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10453,10 +10429,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10482,10 +10458,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10511,10 +10487,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10540,10 +10516,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10569,10 +10545,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10598,10 +10574,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10627,10 +10603,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10656,10 +10632,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>44</v>
@@ -10685,10 +10661,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -10714,10 +10690,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10743,10 +10719,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10772,10 +10748,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10801,10 +10777,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>7</v>
@@ -10830,10 +10806,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -10859,10 +10835,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>6</v>
@@ -10888,10 +10864,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10917,10 +10893,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G233" t="n">
         <v>6</v>
@@ -10946,10 +10922,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10975,10 +10951,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>17</v>
@@ -11004,10 +10980,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F236" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -11033,10 +11009,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11062,10 +11038,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -11091,10 +11067,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -11120,10 +11096,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -11149,10 +11125,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>6</v>
@@ -11178,10 +11154,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -11207,10 +11183,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>10</v>
@@ -11236,10 +11212,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11265,10 +11241,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>4</v>
@@ -11294,10 +11270,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11323,10 +11299,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>5</v>
@@ -11352,10 +11328,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -11381,10 +11357,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>9</v>
@@ -11410,10 +11386,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11439,10 +11415,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -11468,10 +11444,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -11497,10 +11473,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -11526,10 +11502,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G254" t="n">
         <v>7</v>
@@ -11555,10 +11531,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11584,10 +11560,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11613,10 +11589,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -11642,10 +11618,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>5</v>
@@ -11671,10 +11647,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>13</v>
@@ -11700,10 +11676,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>14</v>
@@ -11729,10 +11705,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>11</v>
@@ -11758,10 +11734,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>13</v>
@@ -11787,10 +11763,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>15</v>
@@ -11816,10 +11792,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11845,10 +11821,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11874,10 +11850,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -11903,10 +11879,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11932,10 +11908,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>6</v>
@@ -11961,10 +11937,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11990,10 +11966,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -12019,10 +11995,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12048,10 +12024,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -12077,10 +12053,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -12106,10 +12082,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12135,10 +12111,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12164,10 +12140,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -12193,10 +12169,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12222,10 +12198,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12251,10 +12227,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12280,10 +12256,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12309,10 +12285,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12338,10 +12314,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12367,10 +12343,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12396,10 +12372,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12425,10 +12401,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12454,10 +12430,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -12483,10 +12459,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12512,10 +12488,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -12541,10 +12517,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12570,10 +12546,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -12599,10 +12575,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>12</v>
@@ -12628,10 +12604,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12657,10 +12633,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>5</v>
@@ -12686,10 +12662,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12715,10 +12691,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12744,10 +12720,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12773,10 +12749,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12802,10 +12778,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12831,10 +12807,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12860,10 +12836,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F300" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12889,10 +12865,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12918,10 +12894,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12947,10 +12923,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12976,10 +12952,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -13005,10 +12981,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F305" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G305" t="n">
         <v>4</v>
@@ -13034,10 +13010,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -13063,10 +13039,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -13092,10 +13068,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13121,10 +13097,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13150,10 +13126,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F310" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -13179,10 +13155,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13208,10 +13184,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13237,10 +13213,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13266,10 +13242,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13295,10 +13271,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13324,10 +13300,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -13353,10 +13329,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13382,10 +13358,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13411,10 +13387,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13440,10 +13416,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13469,10 +13445,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13498,10 +13474,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13527,10 +13503,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F323" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13556,10 +13532,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -13585,10 +13561,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13614,10 +13590,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13643,10 +13619,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13672,10 +13648,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13701,10 +13677,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>3</v>
@@ -13730,10 +13706,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13759,10 +13735,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F331" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -13788,10 +13764,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13817,10 +13793,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13846,10 +13822,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13875,10 +13851,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13904,10 +13880,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13933,10 +13909,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13962,10 +13938,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13991,10 +13967,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14020,10 +13996,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14049,10 +14025,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14078,10 +14054,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -14107,10 +14083,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -14136,10 +14112,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14165,10 +14141,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14194,10 +14170,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14223,10 +14199,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -14252,10 +14228,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -14281,10 +14257,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14310,10 +14286,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14339,10 +14315,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -14368,10 +14344,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14397,10 +14373,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14426,10 +14402,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -14455,10 +14431,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14484,10 +14460,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -14513,10 +14489,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14542,10 +14518,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>5</v>
@@ -14571,10 +14547,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14600,10 +14576,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14629,10 +14605,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14658,10 +14634,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14687,10 +14663,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G363" t="n">
         <v>4</v>
@@ -14716,10 +14692,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14745,10 +14721,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14774,10 +14750,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14803,10 +14779,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14832,10 +14808,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14861,10 +14837,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14890,10 +14866,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F370" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14919,10 +14895,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F371" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14948,10 +14924,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F372" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14977,10 +14953,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15006,10 +14982,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15035,10 +15011,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15064,10 +15040,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15093,10 +15069,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15122,10 +15098,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F378" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15151,10 +15127,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F379" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15180,10 +15156,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F380" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15209,10 +15185,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F381" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15238,10 +15214,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F382" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15267,10 +15243,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F383" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15296,10 +15272,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F384" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15325,10 +15301,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F385" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15354,10 +15330,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F386" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15383,10 +15359,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F387" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15412,10 +15388,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F388" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15441,10 +15417,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F389" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15470,10 +15446,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F390" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15499,10 +15475,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F391" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15528,10 +15504,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F392" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15557,10 +15533,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F393" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -15586,10 +15562,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F394" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15615,10 +15591,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F395" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15644,10 +15620,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F396" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15673,10 +15649,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F397" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15702,10 +15678,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F398" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15731,10 +15707,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F399" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15760,10 +15736,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F400" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15789,10 +15765,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F401" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15818,10 +15794,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F402" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15847,10 +15823,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F403" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15876,10 +15852,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F404" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15905,10 +15881,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F405" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15934,10 +15910,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F406" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G406" t="n">
         <v>4</v>
@@ -15963,10 +15939,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F407" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15992,10 +15968,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F408" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G408" t="n">
         <v>6</v>
@@ -16021,10 +15997,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F409" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -16050,10 +16026,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F410" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16079,10 +16055,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F411" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -16108,10 +16084,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F412" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16137,10 +16113,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F413" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16166,10 +16142,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F414" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16195,10 +16171,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F415" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16224,10 +16200,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F416" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16253,10 +16229,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F417" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16282,10 +16258,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16311,10 +16287,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F419" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16340,10 +16316,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F420" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16369,10 +16345,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F421" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16398,10 +16374,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F422" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16427,10 +16403,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F423" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G423" t="n">
         <v>4</v>
@@ -16456,10 +16432,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F424" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16485,10 +16461,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F425" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16514,10 +16490,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F426" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16543,10 +16519,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F427" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16572,10 +16548,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F428" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16601,10 +16577,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F429" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16630,10 +16606,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F430" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16659,10 +16635,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F431" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16688,10 +16664,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F432" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16717,10 +16693,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F433" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16746,10 +16722,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F434" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16775,10 +16751,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F435" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16804,10 +16780,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F436" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16833,10 +16809,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F437" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16862,10 +16838,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F438" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16891,10 +16867,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F439" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16920,10 +16896,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F440" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16949,10 +16925,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F441" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16978,10 +16954,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F442" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17007,10 +16983,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F443" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17036,10 +17012,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F444" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17065,10 +17041,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F445" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17094,10 +17070,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F446" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17123,10 +17099,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F447" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17152,10 +17128,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F448" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17181,10 +17157,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F449" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17210,10 +17186,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F450" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17239,10 +17215,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F451" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17268,10 +17244,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F452" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17297,10 +17273,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F453" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -17326,10 +17302,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F454" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17355,10 +17331,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F455" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17384,10 +17360,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F456" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17413,10 +17389,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F457" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17442,10 +17418,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F458" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17471,10 +17447,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F459" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G459" t="n">
         <v>5</v>
@@ -17500,10 +17476,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F460" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17529,10 +17505,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F461" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17558,10 +17534,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17587,10 +17563,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F463" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>3</v>
@@ -17616,10 +17592,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F464" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17645,10 +17621,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F465" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17674,10 +17650,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F466" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G466" t="n">
         <v>4</v>
@@ -17703,10 +17679,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F467" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17732,10 +17708,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F468" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17761,10 +17737,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F469" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G469" t="n">
         <v>136</v>
@@ -17819,10 +17795,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F471" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17848,10 +17824,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F472" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17877,10 +17853,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F473" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17906,10 +17882,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F474" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17935,10 +17911,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F475" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17964,10 +17940,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F476" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17993,10 +17969,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F477" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18022,10 +17998,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>6</v>
@@ -18051,10 +18027,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18080,10 +18056,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18109,10 +18085,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18138,10 +18114,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F482" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18167,10 +18143,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F483" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18196,10 +18172,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F484" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18225,10 +18201,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F485" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18254,10 +18230,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F486" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18283,10 +18259,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F487" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18312,10 +18288,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F488" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18341,10 +18317,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F489" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18370,10 +18346,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F490" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18399,10 +18375,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F491" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18428,10 +18404,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F492" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18457,10 +18433,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F493" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18486,10 +18462,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F494" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18515,10 +18491,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F495" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18544,10 +18520,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F496" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18573,10 +18549,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F497" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18602,10 +18578,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F498" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18631,10 +18607,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F499" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18660,10 +18636,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F500" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18689,10 +18665,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F501" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18718,10 +18694,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F502" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18747,10 +18723,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F503" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18776,10 +18752,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F504" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18805,10 +18781,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F505" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18834,10 +18810,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F506" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18863,10 +18839,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F507" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G507" t="n">
         <v>6</v>
@@ -18892,10 +18868,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F508" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18921,10 +18897,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18950,10 +18926,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F510" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18979,10 +18955,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F511" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19008,10 +18984,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F512" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19037,10 +19013,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F513" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19066,10 +19042,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F514" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19095,10 +19071,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F515" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19124,10 +19100,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F516" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19153,10 +19129,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F517" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19182,10 +19158,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F518" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19211,10 +19187,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F519" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19240,10 +19216,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F520" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19269,10 +19245,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F521" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19298,10 +19274,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F522" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19327,10 +19303,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F523" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19356,10 +19332,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F524" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19385,10 +19361,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19414,10 +19390,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19443,10 +19419,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -19472,10 +19448,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F528" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19501,10 +19477,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F529" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19530,10 +19506,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F530" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19559,10 +19535,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F531" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19588,10 +19564,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F532" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19617,10 +19593,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F533" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19646,10 +19622,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F534" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19675,10 +19651,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F535" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19704,10 +19680,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F536" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19733,10 +19709,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F537" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19762,10 +19738,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F538" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19791,10 +19767,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F539" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19820,10 +19796,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F540" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19849,10 +19825,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F541" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19878,10 +19854,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F542" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19907,10 +19883,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F543" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19936,10 +19912,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F544" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G544" t="n">
         <v>2</v>
@@ -19965,10 +19941,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F545" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19994,10 +19970,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F546" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20023,10 +19999,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F547" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20052,10 +20028,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F548" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20081,10 +20057,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F549" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20110,10 +20086,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F550" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20139,10 +20115,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F551" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20168,10 +20144,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F552" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G552" t="n">
         <v>51</v>
@@ -20197,10 +20173,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F553" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20226,10 +20202,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F554" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20255,10 +20231,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F555" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20284,10 +20260,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F556" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20313,10 +20289,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F557" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20342,10 +20318,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F558" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20371,10 +20347,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F559" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20400,10 +20376,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F560" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20429,10 +20405,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F561" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20458,10 +20434,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F562" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20487,10 +20463,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F563" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20516,10 +20492,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F564" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20545,10 +20521,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F565" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20574,10 +20550,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F566" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20603,10 +20579,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F567" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20632,10 +20608,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F568" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20661,10 +20637,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F569" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20690,10 +20666,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F570" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20719,10 +20695,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F571" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G571" t="n">
         <v>3</v>
@@ -20748,10 +20724,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F572" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20777,10 +20753,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F573" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20806,10 +20782,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F574" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20835,10 +20811,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F575" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G575" t="n">
         <v>3</v>
@@ -20864,10 +20840,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F576" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20893,10 +20869,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F577" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20922,10 +20898,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F578" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G578" t="n">
         <v>4</v>
@@ -20951,10 +20927,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F579" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20980,10 +20956,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F580" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G580" t="n">
         <v>2</v>
@@ -21009,10 +20985,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F581" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -21038,10 +21014,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F582" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21067,10 +21043,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F583" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21096,10 +21072,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F584" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21125,10 +21101,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F585" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21154,10 +21130,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F586" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21183,10 +21159,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F587" t="s">
-        <v>1126</v>
+        <v>112</v>
       </c>
       <c r="G587" t="n">
         <v>2</v>
@@ -21241,10 +21217,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="F589" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="G589" t="n">
         <v>3</v>
@@ -21270,10 +21246,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F590" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21299,10 +21275,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F591" t="s">
-        <v>1132</v>
+        <v>190</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21328,10 +21304,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F592" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21357,10 +21333,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F593" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21386,10 +21362,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F594" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21415,10 +21391,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F595" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21444,10 +21420,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F596" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G596" t="n">
         <v>3</v>
@@ -21473,10 +21449,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F597" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21502,10 +21478,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F598" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21531,10 +21507,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F599" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21560,10 +21536,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F600" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21589,10 +21565,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F601" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21618,10 +21594,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F602" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21647,10 +21623,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F603" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21676,10 +21652,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F604" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21705,10 +21681,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="F605" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21734,10 +21710,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="F606" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21763,10 +21739,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F607" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21792,10 +21768,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F608" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21821,10 +21797,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="F609" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21850,10 +21826,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F610" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21879,10 +21855,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F611" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21908,10 +21884,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F612" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G612" t="n">
         <v>2</v>
@@ -21937,10 +21913,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F613" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21966,10 +21942,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="F614" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21995,10 +21971,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="F615" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22024,10 +22000,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="F616" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22053,10 +22029,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F617" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22082,10 +22058,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F618" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22111,10 +22087,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="F619" t="s">
-        <v>1188</v>
+        <v>108</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22140,10 +22116,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F620" t="s">
-        <v>1190</v>
+        <v>421</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22169,10 +22145,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F621" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22198,10 +22174,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="F622" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22227,10 +22203,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="F623" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22256,10 +22232,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F624" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22285,10 +22261,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="F625" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22314,10 +22290,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="F626" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22343,10 +22319,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F627" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22372,10 +22348,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="F628" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22401,10 +22377,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F629" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22430,10 +22406,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="F630" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22459,10 +22435,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="F631" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22488,10 +22464,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="F632" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22517,10 +22493,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="F633" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22546,10 +22522,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="F634" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22575,10 +22551,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F635" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22604,10 +22580,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F636" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22633,10 +22609,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F637" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22662,10 +22638,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F638" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22691,10 +22667,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F639" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22720,10 +22696,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F640" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22749,10 +22725,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F641" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22778,10 +22754,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="F642" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22807,10 +22783,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="F643" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22836,10 +22812,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="F644" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22865,10 +22841,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="F645" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22894,10 +22870,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="F646" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22923,10 +22899,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="F647" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22952,10 +22928,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="F648" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="G648" t="n">
         <v>3</v>
@@ -22981,10 +22957,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="F649" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="G649" t="n">
         <v>3</v>
@@ -23010,10 +22986,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="F650" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23039,10 +23015,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F651" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23068,10 +23044,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F652" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23097,10 +23073,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F653" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23126,10 +23102,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="F654" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23155,10 +23131,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="F655" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23184,10 +23160,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="F656" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23213,10 +23189,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="F657" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23242,10 +23218,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="F658" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23271,10 +23247,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="F659" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
